--- a/05 - Joins/Actividad 2.2/Actividad 2.2 Resultados.xlsx
+++ b/05 - Joins/Actividad 2.2/Actividad 2.2 Resultados.xlsx
@@ -1,31 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\UTN\Laboratorio III\LaboratorioIII-BasesDeDatos\05 - Joins\Actividad 2.2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15901855-73ED-450C-BE6C-BDAB563ED7AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="1" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="2" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="3" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="4" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="5" sheetId="5" r:id="rId8"/>
-    <sheet state="visible" name="6" sheetId="6" r:id="rId9"/>
-    <sheet state="visible" name="7" sheetId="7" r:id="rId10"/>
-    <sheet state="visible" name="8" sheetId="8" r:id="rId11"/>
-    <sheet state="visible" name="9" sheetId="9" r:id="rId12"/>
-    <sheet state="visible" name="10" sheetId="10" r:id="rId13"/>
-    <sheet state="visible" name="11" sheetId="11" r:id="rId14"/>
-    <sheet state="visible" name="12" sheetId="12" r:id="rId15"/>
-    <sheet state="visible" name="13" sheetId="13" r:id="rId16"/>
-    <sheet state="visible" name="14" sheetId="14" r:id="rId17"/>
-    <sheet state="visible" name="15" sheetId="15" r:id="rId18"/>
-    <sheet state="visible" name="16" sheetId="16" r:id="rId19"/>
-    <sheet state="visible" name="17" sheetId="17" r:id="rId20"/>
-    <sheet state="visible" name="18" sheetId="18" r:id="rId21"/>
-    <sheet state="visible" name="19" sheetId="19" r:id="rId22"/>
-    <sheet state="visible" name="20" sheetId="20" r:id="rId23"/>
+    <sheet name="1" sheetId="1" r:id="rId1"/>
+    <sheet name="2" sheetId="2" r:id="rId2"/>
+    <sheet name="3" sheetId="3" r:id="rId3"/>
+    <sheet name="4" sheetId="4" r:id="rId4"/>
+    <sheet name="5" sheetId="5" r:id="rId5"/>
+    <sheet name="6" sheetId="6" r:id="rId6"/>
+    <sheet name="7" sheetId="7" r:id="rId7"/>
+    <sheet name="8" sheetId="8" r:id="rId8"/>
+    <sheet name="9" sheetId="9" r:id="rId9"/>
+    <sheet name="10" sheetId="10" r:id="rId10"/>
+    <sheet name="11" sheetId="11" r:id="rId11"/>
+    <sheet name="12" sheetId="12" r:id="rId12"/>
+    <sheet name="13" sheetId="13" r:id="rId13"/>
+    <sheet name="14" sheetId="14" r:id="rId14"/>
+    <sheet name="15" sheetId="15" r:id="rId15"/>
+    <sheet name="16" sheetId="16" r:id="rId16"/>
+    <sheet name="17" sheetId="17" r:id="rId17"/>
+    <sheet name="18" sheetId="18" r:id="rId18"/>
+    <sheet name="19" sheetId="19" r:id="rId19"/>
+    <sheet name="20" sheetId="20" r:id="rId20"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -593,141 +602,78 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing16.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing17.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing18.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing19.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing20.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -917,23 +863,28 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:Z11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" activeCellId="2" sqref="C3 C8 C7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="3" max="3" width="19.0"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -943,161 +894,162 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="3" t="s">
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>17</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:Z37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="21.75"/>
-    <col customWidth="1" min="4" max="4" width="19.75"/>
-    <col customWidth="1" min="5" max="5" width="15.25"/>
+    <col min="1" max="1" width="21.7109375" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1116,1025 +1068,1028 @@
       <c r="F1" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="3" t="s">
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="3">
-        <v>204800.0</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="2">
+        <v>204800</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="3">
-        <v>200.0</v>
-      </c>
-      <c r="F2" s="3" t="s">
+      <c r="E2" s="2">
+        <v>200</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="3">
-        <v>51200.0</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="C3" s="2">
+        <v>51200</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="3">
-        <v>50.0</v>
-      </c>
-      <c r="F3" s="3" t="s">
+      <c r="E3" s="2">
+        <v>50</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="3">
-        <v>1.048576E8</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="C4" s="2">
+        <v>104857600</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E4" s="3">
-        <v>100.0</v>
-      </c>
-      <c r="F4" s="3" t="s">
+      <c r="E4" s="2">
+        <v>100</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="3">
-        <v>307200.0</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="C5" s="2">
+        <v>307200</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E5" s="3">
-        <v>300.0</v>
-      </c>
-      <c r="F5" s="3" t="s">
+      <c r="E5" s="2">
+        <v>300</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="3">
-        <v>102400.0</v>
-      </c>
-      <c r="D6" s="3" t="s">
+      <c r="C6" s="2">
+        <v>102400</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E6" s="3">
-        <v>100.0</v>
-      </c>
-      <c r="F6" s="3" t="s">
+      <c r="E6" s="2">
+        <v>100</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="3">
-        <v>81920.0</v>
-      </c>
-      <c r="D7" s="3" t="s">
+      <c r="C7" s="2">
+        <v>81920</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E7" s="3">
-        <v>80.0</v>
-      </c>
-      <c r="F7" s="3" t="s">
+      <c r="E7" s="2">
+        <v>80</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="3">
-        <v>256000.0</v>
-      </c>
-      <c r="D8" s="3" t="s">
+      <c r="C8" s="2">
+        <v>256000</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="3">
-        <v>250.0</v>
-      </c>
-      <c r="F8" s="3" t="s">
+      <c r="E8" s="2">
+        <v>250</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="3">
-        <v>76800.0</v>
-      </c>
-      <c r="D9" s="3" t="s">
+      <c r="C9" s="2">
+        <v>76800</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E9" s="3">
-        <v>75.0</v>
-      </c>
-      <c r="F9" s="3" t="s">
+      <c r="E9" s="2">
+        <v>75</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C10" s="3">
-        <v>51200.0</v>
-      </c>
-      <c r="D10" s="3" t="s">
+      <c r="C10" s="2">
+        <v>51200</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E10" s="3">
-        <v>50.0</v>
-      </c>
-      <c r="F10" s="3" t="s">
+      <c r="E10" s="2">
+        <v>50</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="3">
-        <v>153600.0</v>
-      </c>
-      <c r="D11" s="3" t="s">
+      <c r="C11" s="2">
+        <v>153600</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E11" s="3">
-        <v>150.0</v>
-      </c>
-      <c r="F11" s="3" t="s">
+      <c r="E11" s="2">
+        <v>150</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="3">
-        <v>128000.0</v>
-      </c>
-      <c r="D12" s="3" t="s">
+      <c r="C12" s="2">
+        <v>128000</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E12" s="3">
-        <v>125.0</v>
-      </c>
-      <c r="F12" s="3" t="s">
+      <c r="E12" s="2">
+        <v>125</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="3">
-        <v>102400.0</v>
-      </c>
-      <c r="D13" s="3" t="s">
+      <c r="C13" s="2">
+        <v>102400</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E13" s="3">
-        <v>100.0</v>
-      </c>
-      <c r="F13" s="3" t="s">
+      <c r="E13" s="2">
+        <v>100</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="3" t="s">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C14" s="3">
-        <v>5.24288E7</v>
-      </c>
-      <c r="D14" s="3" t="s">
+      <c r="C14" s="2">
+        <v>52428800</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E14" s="3">
-        <v>50.0</v>
-      </c>
-      <c r="F14" s="3" t="s">
+      <c r="E14" s="2">
+        <v>50</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="3" t="s">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C15" s="3">
-        <v>1.048576E8</v>
-      </c>
-      <c r="D15" s="3" t="s">
+      <c r="C15" s="2">
+        <v>104857600</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E15" s="3">
-        <v>100.0</v>
-      </c>
-      <c r="F15" s="3" t="s">
+      <c r="E15" s="2">
+        <v>100</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="3" t="s">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C16" s="3">
-        <v>40960.0</v>
-      </c>
-      <c r="D16" s="3" t="s">
+      <c r="C16" s="2">
+        <v>40960</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E16" s="3">
-        <v>40.0</v>
-      </c>
-      <c r="F16" s="3" t="s">
+      <c r="E16" s="2">
+        <v>40</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="3" t="s">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="3">
-        <v>102400.0</v>
-      </c>
-      <c r="D17" s="3" t="s">
+      <c r="C17" s="2">
+        <v>102400</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E17" s="3">
-        <v>100.0</v>
-      </c>
-      <c r="F17" s="3" t="s">
+      <c r="E17" s="2">
+        <v>100</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="3" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="3">
-        <v>204800.0</v>
-      </c>
-      <c r="D18" s="3" t="s">
+      <c r="C18" s="2">
+        <v>204800</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E18" s="3">
-        <v>200.0</v>
-      </c>
-      <c r="F18" s="3" t="s">
+      <c r="E18" s="2">
+        <v>200</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="3" t="s">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C19" s="3">
-        <v>61440.0</v>
-      </c>
-      <c r="D19" s="3" t="s">
+      <c r="C19" s="2">
+        <v>61440</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E19" s="3">
-        <v>60.0</v>
-      </c>
-      <c r="F19" s="3" t="s">
+      <c r="E19" s="2">
+        <v>60</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="3" t="s">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C20" s="3">
-        <v>30720.0</v>
-      </c>
-      <c r="D20" s="3" t="s">
+      <c r="C20" s="2">
+        <v>30720</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E20" s="3">
-        <v>30.0</v>
-      </c>
-      <c r="F20" s="3" t="s">
+      <c r="E20" s="2">
+        <v>30</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="3" t="s">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="3">
-        <v>153600.0</v>
-      </c>
-      <c r="D21" s="3" t="s">
+      <c r="C21" s="2">
+        <v>153600</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E21" s="3">
-        <v>150.0</v>
-      </c>
-      <c r="F21" s="3" t="s">
+      <c r="E21" s="2">
+        <v>150</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="3" t="s">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="3">
-        <v>256000.0</v>
-      </c>
-      <c r="D22" s="3" t="s">
+      <c r="C22" s="2">
+        <v>256000</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E22" s="3">
-        <v>250.0</v>
-      </c>
-      <c r="F22" s="3" t="s">
+      <c r="E22" s="2">
+        <v>250</v>
+      </c>
+      <c r="F22" s="2" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="3" t="s">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="3">
-        <v>204800.0</v>
-      </c>
-      <c r="D23" s="3" t="s">
+      <c r="C23" s="2">
+        <v>204800</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E23" s="3">
-        <v>200.0</v>
-      </c>
-      <c r="F23" s="3" t="s">
+      <c r="E23" s="2">
+        <v>200</v>
+      </c>
+      <c r="F23" s="2" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="3" t="s">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C24" s="3">
-        <v>40960.0</v>
-      </c>
-      <c r="D24" s="3" t="s">
+      <c r="C24" s="2">
+        <v>40960</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E24" s="3">
-        <v>40.0</v>
-      </c>
-      <c r="F24" s="3" t="s">
+      <c r="E24" s="2">
+        <v>40</v>
+      </c>
+      <c r="F24" s="2" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="3" t="s">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="3">
-        <v>2.097152E8</v>
-      </c>
-      <c r="D25" s="3" t="s">
+      <c r="C25" s="2">
+        <v>209715200</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E25" s="3">
-        <v>200.0</v>
-      </c>
-      <c r="F25" s="3" t="s">
+      <c r="E25" s="2">
+        <v>200</v>
+      </c>
+      <c r="F25" s="2" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="3" t="s">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="3">
-        <v>102400.0</v>
-      </c>
-      <c r="D26" s="3" t="s">
+      <c r="C26" s="2">
+        <v>102400</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E26" s="3">
-        <v>100.0</v>
-      </c>
-      <c r="F26" s="3" t="s">
+      <c r="E26" s="2">
+        <v>100</v>
+      </c>
+      <c r="F26" s="2" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="3" t="s">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C27" s="3">
-        <v>1.572864E8</v>
-      </c>
-      <c r="D27" s="3" t="s">
+      <c r="C27" s="2">
+        <v>157286400</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E27" s="3">
-        <v>150.0</v>
-      </c>
-      <c r="F27" s="3" t="s">
+      <c r="E27" s="2">
+        <v>150</v>
+      </c>
+      <c r="F27" s="2" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="3" t="s">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C28" s="3">
-        <v>61440.0</v>
-      </c>
-      <c r="D28" s="3" t="s">
+      <c r="C28" s="2">
+        <v>61440</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E28" s="3">
-        <v>60.0</v>
-      </c>
-      <c r="F28" s="3" t="s">
+      <c r="E28" s="2">
+        <v>60</v>
+      </c>
+      <c r="F28" s="2" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="3" t="s">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C29" s="3">
-        <v>122880.0</v>
-      </c>
-      <c r="D29" s="3" t="s">
+      <c r="C29" s="2">
+        <v>122880</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E29" s="3">
-        <v>120.0</v>
-      </c>
-      <c r="F29" s="3" t="s">
+      <c r="E29" s="2">
+        <v>120</v>
+      </c>
+      <c r="F29" s="2" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="3" t="s">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C30" s="3">
-        <v>51200.0</v>
-      </c>
-      <c r="D30" s="3" t="s">
+      <c r="C30" s="2">
+        <v>51200</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E30" s="3">
-        <v>50.0</v>
-      </c>
-      <c r="F30" s="3" t="s">
+      <c r="E30" s="2">
+        <v>50</v>
+      </c>
+      <c r="F30" s="2" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="3" t="s">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C31" s="3">
-        <v>153600.0</v>
-      </c>
-      <c r="D31" s="3" t="s">
+      <c r="C31" s="2">
+        <v>153600</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E31" s="3">
-        <v>150.0</v>
-      </c>
-      <c r="F31" s="3" t="s">
+      <c r="E31" s="2">
+        <v>150</v>
+      </c>
+      <c r="F31" s="2" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="3" t="s">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C32" s="3">
-        <v>204800.0</v>
-      </c>
-      <c r="D32" s="3" t="s">
+      <c r="C32" s="2">
+        <v>204800</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E32" s="3">
-        <v>200.0</v>
-      </c>
-      <c r="F32" s="3" t="s">
+      <c r="E32" s="2">
+        <v>200</v>
+      </c>
+      <c r="F32" s="2" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="3" t="s">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C33" s="3">
-        <v>1.048576E8</v>
-      </c>
-      <c r="D33" s="3" t="s">
+      <c r="C33" s="2">
+        <v>104857600</v>
+      </c>
+      <c r="D33" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E33" s="3">
-        <v>100.0</v>
-      </c>
-      <c r="F33" s="3" t="s">
+      <c r="E33" s="2">
+        <v>100</v>
+      </c>
+      <c r="F33" s="2" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="3" t="s">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C34" s="3">
-        <v>40960.0</v>
-      </c>
-      <c r="D34" s="3" t="s">
+      <c r="C34" s="2">
+        <v>40960</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E34" s="3">
-        <v>40.0</v>
-      </c>
-      <c r="F34" s="3" t="s">
+      <c r="E34" s="2">
+        <v>40</v>
+      </c>
+      <c r="F34" s="2" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="3" t="s">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C35" s="3">
-        <v>102400.0</v>
-      </c>
-      <c r="D35" s="3" t="s">
+      <c r="C35" s="2">
+        <v>102400</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E35" s="3">
-        <v>100.0</v>
-      </c>
-      <c r="F35" s="3" t="s">
+      <c r="E35" s="2">
+        <v>100</v>
+      </c>
+      <c r="F35" s="2" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="3" t="s">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="3">
-        <v>153600.0</v>
-      </c>
-      <c r="D36" s="3" t="s">
+      <c r="C36" s="2">
+        <v>153600</v>
+      </c>
+      <c r="D36" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E36" s="3">
-        <v>150.0</v>
-      </c>
-      <c r="F36" s="3" t="s">
+      <c r="E36" s="2">
+        <v>150</v>
+      </c>
+      <c r="F36" s="2" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="3" t="s">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C37" s="3">
-        <v>204800.0</v>
-      </c>
-      <c r="D37" s="3" t="s">
+      <c r="C37" s="2">
+        <v>204800</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E37" s="3">
-        <v>200.0</v>
-      </c>
-      <c r="F37" s="3" t="s">
+      <c r="E37" s="2">
+        <v>200</v>
+      </c>
+      <c r="F37" s="2" t="s">
         <v>142</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:Z19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="21.75"/>
-    <col customWidth="1" min="4" max="4" width="19.88"/>
+    <col min="1" max="1" width="21.7109375" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="3" t="s">
+      <c r="C1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="3" t="s">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="3" t="s">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="3" t="s">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="3" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="3" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="3" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>74</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:Z3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="17.0"/>
+    <col min="1" max="1" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="3" t="s">
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>46</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:Z5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="17.0"/>
+    <col min="1" max="1" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2147,104 +2102,105 @@
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="3" t="s">
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>20</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="19.88"/>
+    <col min="1" max="1" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2252,306 +2208,309 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="3" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="3" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="3" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="3" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="3" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="3" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>74</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:Z8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="3" t="s">
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>22</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="13.5"/>
+    <col min="1" max="1" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:Z20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="3" max="3" width="18.13"/>
-    <col customWidth="1" min="7" max="7" width="25.38"/>
+    <col min="3" max="3" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="25.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2573,489 +2532,490 @@
       <c r="G1" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="3" t="s">
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="G2" s="3">
-        <v>1275.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="s">
+      <c r="G2" s="2">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="G3" s="3">
-        <v>645.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="3" t="s">
+      <c r="G3" s="2">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="G4" s="3">
-        <v>1035.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="3" t="s">
+      <c r="G4" s="2">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="G5" s="3">
-        <v>599.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="s">
+      <c r="G5" s="2">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="G6" s="3">
-        <v>1654.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="s">
+      <c r="G6" s="2">
+        <v>1654</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="G7" s="3">
-        <v>701.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="s">
+      <c r="G7" s="2">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="G8" s="3">
-        <v>392.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="s">
+      <c r="G8" s="2">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="G9" s="3">
-        <v>907.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="s">
+      <c r="G9" s="2">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="G10" s="3">
-        <v>1254.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="s">
+      <c r="G10" s="2">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="G11" s="3">
-        <v>560.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="3" t="s">
+      <c r="G11" s="2">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="G12" s="3">
-        <v>995.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="3" t="s">
+      <c r="G12" s="2">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="G13" s="3">
-        <v>253.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="3" t="s">
+      <c r="G13" s="2">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="G14" s="3">
-        <v>879.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="3" t="s">
+      <c r="G14" s="2">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="G15" s="3">
-        <v>387.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="3" t="s">
+      <c r="G15" s="2">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="G16" s="3">
-        <v>811.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="3" t="s">
+      <c r="G16" s="2">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="G17" s="3">
-        <v>222.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="3" t="s">
+      <c r="G17" s="2">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F18" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="G18" s="3">
-        <v>530.0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="3" t="s">
+      <c r="G18" s="2">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="G19" s="3">
-        <v>1355.0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="3" t="s">
+      <c r="G19" s="2">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="G20" s="3">
-        <v>484.0</v>
+      <c r="G20" s="2">
+        <v>484</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:Z21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="21.75"/>
-    <col customWidth="1" min="2" max="2" width="9.0"/>
-    <col customWidth="1" min="3" max="3" width="9.38"/>
-    <col customWidth="1" min="4" max="4" width="19.0"/>
-    <col customWidth="1" min="5" max="5" width="18.63"/>
-    <col customWidth="1" min="6" max="6" width="30.63"/>
-    <col customWidth="1" min="7" max="7" width="30.38"/>
-    <col customWidth="1" min="8" max="8" width="13.88"/>
+    <col min="1" max="1" width="21.7109375" customWidth="1"/>
+    <col min="2" max="2" width="9" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" customWidth="1"/>
+    <col min="6" max="6" width="30.5703125" customWidth="1"/>
+    <col min="7" max="7" width="30.42578125" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>144</v>
       </c>
@@ -3080,571 +3040,572 @@
       <c r="H1" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="3" t="s">
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="3">
-        <v>204800.0</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="2">
+        <v>204800</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="3">
-        <v>51200.0</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="C3" s="2">
+        <v>51200</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="3">
-        <v>1.048576E8</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="C4" s="2">
+        <v>104857600</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="2" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="3">
-        <v>307200.0</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="C5" s="2">
+        <v>307200</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="2" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="3">
-        <v>102400.0</v>
-      </c>
-      <c r="D6" s="3" t="s">
+      <c r="C6" s="2">
+        <v>102400</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="2" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="3">
-        <v>81920.0</v>
-      </c>
-      <c r="D7" s="3" t="s">
+      <c r="C7" s="2">
+        <v>81920</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="2" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="3">
-        <v>256000.0</v>
-      </c>
-      <c r="D8" s="3" t="s">
+      <c r="C8" s="2">
+        <v>256000</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="2" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="3">
-        <v>76800.0</v>
-      </c>
-      <c r="D9" s="3" t="s">
+      <c r="C9" s="2">
+        <v>76800</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="2" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C10" s="3">
-        <v>51200.0</v>
-      </c>
-      <c r="D10" s="3" t="s">
+      <c r="C10" s="2">
+        <v>51200</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H10" s="2" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="3">
-        <v>153600.0</v>
-      </c>
-      <c r="D11" s="3" t="s">
+      <c r="C11" s="2">
+        <v>153600</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="H11" s="2" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="3">
-        <v>128000.0</v>
-      </c>
-      <c r="D12" s="3" t="s">
+      <c r="C12" s="2">
+        <v>128000</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="H12" s="2" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="3">
-        <v>102400.0</v>
-      </c>
-      <c r="D13" s="3" t="s">
+      <c r="C13" s="2">
+        <v>102400</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="G13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="H13" s="2" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="3" t="s">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C14" s="3">
-        <v>5.24288E7</v>
-      </c>
-      <c r="D14" s="3" t="s">
+      <c r="C14" s="2">
+        <v>52428800</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="H14" s="2" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="3" t="s">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C15" s="3">
-        <v>1.048576E8</v>
-      </c>
-      <c r="D15" s="3" t="s">
+      <c r="C15" s="2">
+        <v>104857600</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G15" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="H15" s="2" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="3" t="s">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C16" s="3">
-        <v>40960.0</v>
-      </c>
-      <c r="D16" s="3" t="s">
+      <c r="C16" s="2">
+        <v>40960</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="G16" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="H16" s="2" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="3" t="s">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="3">
-        <v>102400.0</v>
-      </c>
-      <c r="D17" s="3" t="s">
+      <c r="C17" s="2">
+        <v>102400</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="G17" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="H17" s="2" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="3" t="s">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="3">
-        <v>204800.0</v>
-      </c>
-      <c r="D18" s="3" t="s">
+      <c r="C18" s="2">
+        <v>204800</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F18" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="G18" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="H18" s="2" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="3" t="s">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C19" s="3">
-        <v>61440.0</v>
-      </c>
-      <c r="D19" s="3" t="s">
+      <c r="C19" s="2">
+        <v>61440</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="G19" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="H19" s="2" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="3" t="s">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C20" s="3">
-        <v>61440.0</v>
-      </c>
-      <c r="D20" s="3" t="s">
+      <c r="C20" s="2">
+        <v>61440</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="G20" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H20" s="3" t="s">
+      <c r="H20" s="2" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="3" t="s">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C21" s="3">
-        <v>61440.0</v>
-      </c>
-      <c r="D21" s="3" t="s">
+      <c r="C21" s="2">
+        <v>61440</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F21" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G21" s="3" t="s">
+      <c r="G21" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H21" s="3" t="s">
+      <c r="H21" s="2" t="s">
         <v>182</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:Z4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="14.5"/>
-    <col customWidth="1" min="2" max="2" width="9.0"/>
-    <col customWidth="1" min="3" max="3" width="7.25"/>
-    <col customWidth="1" min="4" max="4" width="19.0"/>
-    <col customWidth="1" min="5" max="5" width="18.63"/>
-    <col customWidth="1" min="6" max="6" width="30.63"/>
-    <col customWidth="1" min="7" max="7" width="30.38"/>
-    <col customWidth="1" min="8" max="8" width="13.88"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="2" max="2" width="9" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" customWidth="1"/>
+    <col min="6" max="6" width="30.5703125" customWidth="1"/>
+    <col min="7" max="7" width="30.42578125" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>144</v>
       </c>
@@ -3669,119 +3630,120 @@
       <c r="H1" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="3" t="s">
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="3">
-        <v>204800.0</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="2">
+        <v>204800</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="3">
-        <v>76800.0</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="C3" s="2">
+        <v>76800</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="3">
-        <v>51200.0</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="C4" s="2">
+        <v>51200</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="2" t="s">
         <v>183</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:Z5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
@@ -3794,171 +3756,173 @@
       <c r="D1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="3">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="3">
-        <v>6.0</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="D3" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="3">
-        <v>7.0</v>
-      </c>
-      <c r="B5" s="3" t="s">
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="3">
-        <v>2.0</v>
+      <c r="D5" s="2">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:Z3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="3" t="s">
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:Z37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="21.75"/>
-    <col customWidth="1" min="4" max="4" width="19.75"/>
+    <col min="1" max="1" width="21.7109375" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3971,655 +3935,657 @@
       <c r="D1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="3" t="s">
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="3" t="s">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="3" t="s">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="3" t="s">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="3" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="3" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="3" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="3" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="3" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="3" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="3" t="s">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="3" t="s">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="3" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="3" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="3" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="3" t="s">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="3" t="s">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="3" t="s">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="3" t="s">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D31" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="3" t="s">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D32" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="3" t="s">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D33" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="3" t="s">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D34" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="3" t="s">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D35" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="3" t="s">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="D36" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="3" t="s">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="D37" s="2" t="s">
         <v>48</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:A17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="23.88"/>
+    <col min="1" max="1" width="23.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="3" t="s">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="3" t="s">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="3" t="s">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="3" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
         <v>119</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:Z5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="16.88"/>
+    <col min="1" max="1" width="28.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4632,105 +4598,106 @@
       <c r="D1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="3" t="s">
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>124</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:Z3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="14.0"/>
-    <col customWidth="1" min="3" max="3" width="14.75"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>125</v>
       </c>
@@ -4761,106 +4728,107 @@
       <c r="J1" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="3">
-        <v>31.0</v>
-      </c>
-      <c r="B2" s="3">
-        <v>8.0</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>31</v>
+      </c>
+      <c r="B2" s="2">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="F2" s="3">
-        <v>7.0</v>
-      </c>
-      <c r="G2" s="3">
-        <v>204800.0</v>
-      </c>
-      <c r="H2" s="3" t="s">
+      <c r="F2" s="2">
+        <v>7</v>
+      </c>
+      <c r="G2" s="2">
+        <v>204800</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="J2" s="3">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3">
-        <v>36.0</v>
-      </c>
-      <c r="B3" s="3">
-        <v>8.0</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="J2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>36</v>
+      </c>
+      <c r="B3" s="2">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="F3" s="3">
-        <v>8.0</v>
-      </c>
-      <c r="G3" s="3">
-        <v>204800.0</v>
-      </c>
-      <c r="H3" s="3" t="s">
+      <c r="F3" s="2">
+        <v>8</v>
+      </c>
+      <c r="G3" s="2">
+        <v>204800</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="J3" s="3">
-        <v>1.0</v>
+      <c r="J3" s="2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:Z4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="14.5"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4882,171 +4850,173 @@
       <c r="G1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="3" t="s">
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="3">
-        <v>128000.0</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="2">
+        <v>128000</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="3">
-        <v>102400.0</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="C3" s="2">
+        <v>102400</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="3">
-        <v>40960.0</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="C4" s="2">
+        <v>40960</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="2" t="s">
         <v>18</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
         <v>42</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:Z4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -5056,64 +5026,64 @@
       <c r="C1" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="3" t="s">
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="3">
-        <v>2.097152E8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="s">
+      <c r="C2" s="2">
+        <v>209715200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="3">
-        <v>1.048576E8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="3" t="s">
+      <c r="C3" s="2">
+        <v>104857600</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="3">
-        <v>1.048576E8</v>
+      <c r="C4" s="2">
+        <v>104857600</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>